--- a/data/trans_orig/P6707-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDB7AAE2-2647-4AA1-9E6E-778E767BE20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{945D151B-7C8D-444D-8C43-1912ACF52EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{122F616B-D1E5-42B0-8B40-01E4C1CF3333}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D7DC8287-5999-45DA-85FF-6F5843CD869B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="735">
   <si>
     <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2012 (Tasa respuesta: 33,64%)</t>
   </si>
@@ -76,2179 +76,2173 @@
     <t>20,68%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
   </si>
   <si>
     <t>24,86%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
   </si>
   <si>
     <t>22,05%</t>
   </si>
   <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>20,42%</t>
   </si>
   <si>
     <t>17,39%</t>
   </si>
   <si>
-    <t>13,66%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
 </sst>
 </file>
@@ -2660,7 +2654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBB10D3-41D5-4F5C-896A-20AC03DC9DCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72F6802-A260-432D-809A-FBDB077B9D11}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3403,10 +3397,10 @@
         <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -3415,13 +3409,13 @@
         <v>40558</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -3430,13 +3424,13 @@
         <v>103248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3445,13 @@
         <v>27019</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -3466,13 +3460,13 @@
         <v>25370</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -3481,13 +3475,13 @@
         <v>52389</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3496,13 @@
         <v>92714</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -3517,13 +3511,13 @@
         <v>56176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -3532,13 +3526,13 @@
         <v>148890</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3547,13 @@
         <v>70847</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -3568,13 +3562,13 @@
         <v>53613</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -3583,10 +3577,10 @@
         <v>124461</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>141</v>
@@ -3631,7 +3625,7 @@
         <v>224</v>
       </c>
       <c r="N20" s="7">
-        <v>243638</v>
+        <v>243637</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>148</v>
@@ -3682,7 +3676,7 @@
         <v>615</v>
       </c>
       <c r="N21" s="7">
-        <v>672626</v>
+        <v>672625</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -3831,7 +3825,7 @@
         <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>89</v>
@@ -3840,13 +3834,13 @@
         <v>97410</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3855,13 @@
         <v>66201</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -3876,13 +3870,13 @@
         <v>42779</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
@@ -3891,13 +3885,13 @@
         <v>108980</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3906,13 @@
         <v>104431</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>68</v>
@@ -3927,13 +3921,13 @@
         <v>77523</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>164</v>
@@ -3942,13 +3936,13 @@
         <v>181954</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,7 +3998,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4016,13 +4010,13 @@
         <v>53045</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -4031,13 +4025,13 @@
         <v>68529</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>115</v>
@@ -4046,13 +4040,13 @@
         <v>121574</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4061,13 @@
         <v>38417</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -4082,13 +4076,13 @@
         <v>33959</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>71</v>
@@ -4097,13 +4091,13 @@
         <v>72375</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4112,13 @@
         <v>110478</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>70</v>
@@ -4133,13 +4127,13 @@
         <v>76072</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>178</v>
@@ -4148,13 +4142,13 @@
         <v>186550</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4163,13 @@
         <v>113096</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>57</v>
@@ -4184,13 +4178,13 @@
         <v>58121</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>171</v>
@@ -4199,13 +4193,13 @@
         <v>171217</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4214,13 @@
         <v>100805</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H32" s="7">
         <v>59</v>
@@ -4235,13 +4229,13 @@
         <v>61920</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M32" s="7">
         <v>151</v>
@@ -4250,13 +4244,13 @@
         <v>162726</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4318,13 @@
         <v>215746</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H34" s="7">
         <v>168</v>
@@ -4339,13 +4333,13 @@
         <v>180848</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M34" s="7">
         <v>362</v>
@@ -4354,13 +4348,13 @@
         <v>396593</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4369,13 @@
         <v>118763</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H35" s="7">
         <v>85</v>
@@ -4390,13 +4384,13 @@
         <v>87947</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M35" s="7">
         <v>195</v>
@@ -4405,13 +4399,13 @@
         <v>206710</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4420,13 @@
         <v>316768</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H36" s="7">
         <v>183</v>
@@ -4441,13 +4435,13 @@
         <v>198789</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M36" s="7">
         <v>487</v>
@@ -4456,13 +4450,13 @@
         <v>515557</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4471,13 @@
         <v>297967</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H37" s="7">
         <v>170</v>
@@ -4492,13 +4486,13 @@
         <v>183559</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M37" s="7">
         <v>454</v>
@@ -4507,13 +4501,13 @@
         <v>481526</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>130</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4522,13 @@
         <v>462419</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H38" s="7">
         <v>258</v>
@@ -4543,13 +4537,13 @@
         <v>284575</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M38" s="7">
         <v>691</v>
@@ -4558,13 +4552,13 @@
         <v>746994</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,7 +4614,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4641,7 +4635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363E41FC-B520-4598-A832-110EDCEAA373}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64689C32-D0BE-409E-955D-FB2942E8C87C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4658,7 +4652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4765,13 +4759,13 @@
         <v>6212</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4780,13 +4774,13 @@
         <v>5910</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4795,13 +4789,13 @@
         <v>12122</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4810,13 @@
         <v>4908</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>293</v>
+        <v>51</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4837,7 +4831,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4846,13 +4840,13 @@
         <v>4908</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4861,13 @@
         <v>5210</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4882,13 +4876,13 @@
         <v>9537</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4897,13 +4891,13 @@
         <v>14747</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>305</v>
+        <v>153</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4912,13 @@
         <v>16021</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -4933,13 +4927,13 @@
         <v>9993</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>312</v>
+        <v>58</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4984,13 +4978,13 @@
         <v>4451</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -4999,13 +4993,13 @@
         <v>16122</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5067,13 @@
         <v>36551</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>326</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5088,13 +5082,13 @@
         <v>32534</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -5103,13 +5097,13 @@
         <v>69085</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,10 +5121,10 @@
         <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -5139,13 +5133,13 @@
         <v>23360</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -5154,13 +5148,13 @@
         <v>55597</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5169,13 @@
         <v>49556</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -5190,13 +5184,13 @@
         <v>32294</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M12" s="7">
         <v>82</v>
@@ -5205,10 +5199,10 @@
         <v>81850</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>180</v>
+        <v>346</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>347</v>
@@ -5241,13 +5235,13 @@
         <v>22548</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>351</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -5256,13 +5250,13 @@
         <v>60557</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5271,13 @@
         <v>42917</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>23</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5292,13 +5286,13 @@
         <v>26742</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -5307,13 +5301,13 @@
         <v>69659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5375,13 @@
         <v>68531</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -5396,13 +5390,13 @@
         <v>53350</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -5411,13 +5405,13 @@
         <v>121881</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5426,13 @@
         <v>69254</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -5447,13 +5441,13 @@
         <v>38600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>101</v>
@@ -5462,13 +5456,13 @@
         <v>107854</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5477,13 @@
         <v>110333</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>377</v>
+        <v>177</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H18" s="7">
         <v>75</v>
@@ -5498,13 +5492,13 @@
         <v>75435</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M18" s="7">
         <v>173</v>
@@ -5513,13 +5507,13 @@
         <v>185768</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5528,13 @@
         <v>78463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>386</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -5549,13 +5543,13 @@
         <v>58149</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -5564,13 +5558,13 @@
         <v>136612</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5579,13 @@
         <v>87460</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -5600,13 +5594,13 @@
         <v>48238</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -5615,13 +5609,13 @@
         <v>135698</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>400</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5683,13 @@
         <v>75595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -5704,13 +5698,13 @@
         <v>37584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>104</v>
@@ -5719,13 +5713,13 @@
         <v>113179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5734,13 @@
         <v>57201</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>409</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H23" s="7">
         <v>45</v>
@@ -5755,13 +5749,13 @@
         <v>45968</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>411</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>412</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>96</v>
@@ -5848,7 +5842,7 @@
         <v>426</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>427</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -5857,13 +5851,13 @@
         <v>62241</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -5872,13 +5866,13 @@
         <v>120564</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5887,13 @@
         <v>56625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>251</v>
+        <v>435</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -5908,13 +5902,13 @@
         <v>47366</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M26" s="7">
         <v>99</v>
@@ -5923,13 +5917,13 @@
         <v>103991</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>241</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,7 +5979,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5997,13 +5991,13 @@
         <v>74813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H28" s="7">
         <v>78</v>
@@ -6012,13 +6006,13 @@
         <v>84550</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M28" s="7">
         <v>150</v>
@@ -6027,13 +6021,13 @@
         <v>159363</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>449</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,13 +6042,13 @@
         <v>56751</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>408</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -6063,13 +6057,13 @@
         <v>36813</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>451</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>92</v>
@@ -6078,13 +6072,13 @@
         <v>93564</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>453</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,13 +6093,13 @@
         <v>100698</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H30" s="7">
         <v>76</v>
@@ -6114,13 +6108,13 @@
         <v>77958</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>85</v>
+        <v>462</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M30" s="7">
         <v>174</v>
@@ -6129,13 +6123,13 @@
         <v>178656</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>459</v>
+        <v>228</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6144,13 @@
         <v>93918</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>463</v>
+        <v>85</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>466</v>
       </c>
       <c r="H31" s="7">
         <v>65</v>
@@ -6165,13 +6159,13 @@
         <v>67835</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>67</v>
+        <v>468</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>465</v>
+        <v>133</v>
       </c>
       <c r="M31" s="7">
         <v>158</v>
@@ -6180,13 +6174,13 @@
         <v>161753</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>467</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,13 +6195,13 @@
         <v>74991</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -6216,13 +6210,13 @@
         <v>58318</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>473</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>126</v>
@@ -6231,10 +6225,10 @@
         <v>133308</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>474</v>
+        <v>340</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>156</v>
+        <v>411</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>475</v>
@@ -6308,10 +6302,10 @@
         <v>476</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="H34" s="7">
         <v>206</v>
@@ -6320,13 +6314,13 @@
         <v>213928</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M34" s="7">
         <v>447</v>
@@ -6389,10 +6383,10 @@
         <v>489</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>89</v>
+        <v>490</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,13 +6401,13 @@
         <v>381873</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>492</v>
+        <v>222</v>
       </c>
       <c r="H36" s="7">
         <v>273</v>
@@ -6440,10 +6434,10 @@
         <v>496</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>314</v>
+        <v>497</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,13 +6452,13 @@
         <v>284734</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>231</v>
+        <v>499</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H37" s="7">
         <v>216</v>
@@ -6473,13 +6467,13 @@
         <v>220765</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M37" s="7">
         <v>487</v>
@@ -6488,13 +6482,13 @@
         <v>505499</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,10 +6503,10 @@
         <v>273663</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>507</v>
+        <v>41</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>508</v>
@@ -6524,13 +6518,13 @@
         <v>185115</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>427</v>
+        <v>509</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>183</v>
+        <v>511</v>
       </c>
       <c r="M38" s="7">
         <v>430</v>
@@ -6539,13 +6533,13 @@
         <v>458778</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>509</v>
+        <v>395</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,7 +6595,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6622,7 +6616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A665EF7-F42F-49F4-B2BC-86F644AA1307}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7117CBCD-6243-4745-AFD0-8AE4F4DAF40B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6639,7 +6633,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6746,13 +6740,13 @@
         <v>6933</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6761,13 +6755,13 @@
         <v>3505</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6776,13 +6770,13 @@
         <v>10438</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,7 +6797,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6812,13 +6806,13 @@
         <v>1322</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6827,13 +6821,13 @@
         <v>1322</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,13 +6842,13 @@
         <v>2046</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>531</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6863,13 +6857,13 @@
         <v>159</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6881,10 +6875,10 @@
         <v>167</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,13 +6893,13 @@
         <v>2400</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6914,13 +6908,13 @@
         <v>2642</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>536</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -6929,13 +6923,13 @@
         <v>5041</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,13 +6944,13 @@
         <v>4006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6965,13 +6959,13 @@
         <v>776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -6980,13 +6974,13 @@
         <v>4782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,13 +7048,13 @@
         <v>13430</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -7069,13 +7063,13 @@
         <v>18365</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>553</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -7084,13 +7078,13 @@
         <v>31796</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>432</v>
+        <v>557</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>556</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,13 +7099,13 @@
         <v>7651</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>559</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -7138,10 +7132,10 @@
         <v>563</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,13 +7150,13 @@
         <v>18868</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>568</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -7171,13 +7165,13 @@
         <v>15958</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="M12" s="7">
         <v>48</v>
@@ -7186,10 +7180,10 @@
         <v>34826</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>572</v>
@@ -7210,10 +7204,10 @@
         <v>573</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -7222,13 +7216,13 @@
         <v>13236</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -7237,10 +7231,10 @@
         <v>28681</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>579</v>
@@ -7258,13 +7252,13 @@
         <v>19152</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -7273,13 +7267,13 @@
         <v>13263</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -7288,13 +7282,13 @@
         <v>32415</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,10 +7356,10 @@
         <v>80617</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>590</v>
@@ -7395,10 +7389,10 @@
         <v>594</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>63</v>
+        <v>595</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7413,13 +7407,13 @@
         <v>17119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -7428,13 +7422,13 @@
         <v>14608</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>602</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -7443,13 +7437,13 @@
         <v>31727</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>600</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>601</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>484</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7464,13 +7458,13 @@
         <v>52596</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -7479,13 +7473,13 @@
         <v>38518</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M18" s="7">
         <v>98</v>
@@ -7494,13 +7488,13 @@
         <v>91114</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>608</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>609</v>
+        <v>413</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>380</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7515,13 +7509,13 @@
         <v>26659</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>611</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -7530,13 +7524,13 @@
         <v>13167</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>612</v>
+        <v>376</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>328</v>
+        <v>615</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -7545,13 +7539,13 @@
         <v>39826</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>516</v>
+        <v>616</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>614</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>615</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,13 +7560,13 @@
         <v>35802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -7581,10 +7575,10 @@
         <v>18865</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>620</v>
+        <v>198</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>621</v>
@@ -7596,13 +7590,13 @@
         <v>54667</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7670,13 +7664,13 @@
         <v>18230</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -7685,13 +7679,13 @@
         <v>27409</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>630</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -7700,13 +7694,13 @@
         <v>45639</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,13 +7715,13 @@
         <v>16616</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -7736,13 +7730,13 @@
         <v>18948</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="M23" s="7">
         <v>36</v>
@@ -7751,13 +7745,13 @@
         <v>35564</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>641</v>
+        <v>586</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7766,13 @@
         <v>18902</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>420</v>
+        <v>640</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -7787,13 +7781,13 @@
         <v>19374</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>645</v>
+        <v>508</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>646</v>
+        <v>578</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -7802,13 +7796,13 @@
         <v>38276</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7817,13 @@
         <v>13310</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -7838,13 +7832,13 @@
         <v>7808</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>655</v>
+        <v>64</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -7853,13 +7847,13 @@
         <v>21118</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7868,13 @@
         <v>14048</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>659</v>
+        <v>199</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -7889,13 +7883,13 @@
         <v>15956</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>417</v>
+        <v>658</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -7904,13 +7898,13 @@
         <v>30004</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>665</v>
+        <v>426</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>337</v>
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,7 +7960,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7978,13 +7972,13 @@
         <v>39761</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>575</v>
+        <v>661</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H28" s="7">
         <v>46</v>
@@ -7993,13 +7987,13 @@
         <v>33421</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="M28" s="7">
         <v>83</v>
@@ -8011,10 +8005,10 @@
         <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8023,13 @@
         <v>7565</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -8044,13 +8038,13 @@
         <v>13288</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -8059,13 +8053,13 @@
         <v>20854</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8074,13 @@
         <v>29094</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -8095,13 +8089,13 @@
         <v>13259</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>686</v>
+        <v>636</v>
       </c>
       <c r="M30" s="7">
         <v>46</v>
@@ -8110,13 +8104,13 @@
         <v>42353</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>688</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,13 +8125,13 @@
         <v>19112</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>691</v>
+        <v>662</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -8146,13 +8140,13 @@
         <v>20738</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>629</v>
+        <v>686</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -8161,13 +8155,13 @@
         <v>39851</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>159</v>
+        <v>690</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +8176,13 @@
         <v>17552</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>697</v>
+        <v>649</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>698</v>
+        <v>479</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -8197,13 +8191,13 @@
         <v>14123</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>319</v>
+        <v>95</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -8212,13 +8206,13 @@
         <v>31675</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>632</v>
+        <v>696</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8286,13 +8280,13 @@
         <v>158971</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="H34" s="7">
         <v>158</v>
@@ -8301,13 +8295,13 @@
         <v>125553</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>146</v>
+        <v>701</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -8316,13 +8310,13 @@
         <v>284524</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8337,13 +8331,13 @@
         <v>48952</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>684</v>
+        <v>299</v>
       </c>
       <c r="H35" s="7">
         <v>67</v>
@@ -8352,13 +8346,13 @@
         <v>52692</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>712</v>
+        <v>322</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="M35" s="7">
         <v>107</v>
@@ -8367,13 +8361,13 @@
         <v>101644</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8388,13 +8382,13 @@
         <v>121506</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>185</v>
+        <v>492</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="H36" s="7">
         <v>122</v>
@@ -8403,13 +8397,13 @@
         <v>87268</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>375</v>
+        <v>716</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>129</v>
+        <v>717</v>
       </c>
       <c r="M36" s="7">
         <v>234</v>
@@ -8418,13 +8412,13 @@
         <v>208773</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8439,13 +8433,13 @@
         <v>76926</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>372</v>
+        <v>722</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>725</v>
+        <v>499</v>
       </c>
       <c r="H37" s="7">
         <v>82</v>
@@ -8454,13 +8448,13 @@
         <v>57591</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>728</v>
+        <v>324</v>
       </c>
       <c r="M37" s="7">
         <v>157</v>
@@ -8469,10 +8463,10 @@
         <v>134517</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>158</v>
@@ -8490,13 +8484,13 @@
         <v>90559</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H38" s="7">
         <v>80</v>
@@ -8505,13 +8499,13 @@
         <v>62983</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>452</v>
+        <v>730</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="M38" s="7">
         <v>158</v>
@@ -8520,13 +8514,13 @@
         <v>153542</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>359</v>
+        <v>734</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8582,7 +8576,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6707-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{945D151B-7C8D-444D-8C43-1912ACF52EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F13AB4E-D764-4ED5-8C98-4DB764DFCB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D7DC8287-5999-45DA-85FF-6F5843CD869B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E3ADBDA-42F6-41CE-8E8A-6B872A3A1147}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -76,28 +76,28 @@
     <t>20,68%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
   </si>
   <si>
     <t>24,86%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
   </si>
   <si>
     <t>22,05%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -106,10 +106,10 @@
     <t>7,86%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -124,10 +124,10 @@
     <t>5,29%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,2049 +136,2061 @@
     <t>18,1%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
   </si>
   <si>
     <t>19,25%</t>
   </si>
   <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>36,07%</t>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
   </si>
   <si>
     <t>26,73%</t>
   </si>
   <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>12,76%</t>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
     <t>17,32%</t>
   </si>
   <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>15,0%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>13,91%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
     <t>17,11%</t>
   </si>
   <si>
@@ -2206,34 +2218,22 @@
     <t>15,48%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
     <t>14,92%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
     <t>18,22%</t>
   </si>
   <si>
     <t>12,67%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
     <t>16,31%</t>
   </si>
   <si>
     <t>13,01%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
   </si>
   <si>
     <t>17,39%</t>
@@ -2654,7 +2654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72F6802-A260-432D-809A-FBDB077B9D11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B757F0-F206-43A2-82A9-EF6D986075D7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3143,7 +3143,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -3152,13 +3152,13 @@
         <v>12721</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -3167,13 +3167,13 @@
         <v>28275</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3188,13 @@
         <v>39907</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -3203,13 +3203,13 @@
         <v>27989</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -3218,13 +3218,13 @@
         <v>67896</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3239,13 @@
         <v>38879</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -3254,13 +3254,13 @@
         <v>26531</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -3269,13 +3269,13 @@
         <v>65411</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3290,13 @@
         <v>85395</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -3305,13 +3305,13 @@
         <v>43657</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>123</v>
@@ -3320,13 +3320,13 @@
         <v>129052</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,7 +3382,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3394,13 +3394,13 @@
         <v>62691</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -3409,13 +3409,13 @@
         <v>40558</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -3424,13 +3424,13 @@
         <v>103248</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3445,13 @@
         <v>27019</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -3460,13 +3460,13 @@
         <v>25370</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -3475,13 +3475,13 @@
         <v>52389</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3496,13 @@
         <v>92714</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -3511,13 +3511,13 @@
         <v>56176</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -3526,13 +3526,13 @@
         <v>148890</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3547,13 @@
         <v>70847</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -3562,13 +3562,13 @@
         <v>53613</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -3577,10 +3577,10 @@
         <v>124461</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>141</v>
@@ -3705,10 +3705,10 @@
         <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -3717,13 +3717,13 @@
         <v>45034</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -3732,13 +3732,13 @@
         <v>96877</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3753,13 @@
         <v>33705</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3768,13 +3768,13 @@
         <v>15898</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>45</v>
@@ -3783,13 +3783,13 @@
         <v>49603</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3804,13 @@
         <v>64303</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -3819,13 +3819,13 @@
         <v>33108</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>89</v>
@@ -3834,10 +3834,10 @@
         <v>97410</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>177</v>
@@ -3858,10 +3858,10 @@
         <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -3870,13 +3870,13 @@
         <v>42779</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
@@ -3885,13 +3885,13 @@
         <v>108980</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3906,13 @@
         <v>104431</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>68</v>
@@ -3921,13 +3921,13 @@
         <v>77523</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>164</v>
@@ -3936,13 +3936,13 @@
         <v>181954</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,7 +3998,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4010,13 +4010,13 @@
         <v>53045</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -4025,13 +4025,13 @@
         <v>68529</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="M28" s="7">
         <v>115</v>
@@ -4040,13 +4040,13 @@
         <v>121574</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4061,13 @@
         <v>38417</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -4076,13 +4076,13 @@
         <v>33959</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>71</v>
@@ -4091,13 +4091,13 @@
         <v>72375</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4112,13 @@
         <v>110478</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>70</v>
@@ -4127,13 +4127,13 @@
         <v>76072</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>178</v>
@@ -4142,13 +4142,13 @@
         <v>186550</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4163,13 @@
         <v>113096</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>57</v>
@@ -4178,13 +4178,13 @@
         <v>58121</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>171</v>
@@ -4193,13 +4193,13 @@
         <v>171217</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4214,13 @@
         <v>100805</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H32" s="7">
         <v>59</v>
@@ -4229,13 +4229,13 @@
         <v>61920</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M32" s="7">
         <v>151</v>
@@ -4244,13 +4244,13 @@
         <v>162726</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4318,13 @@
         <v>215746</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H34" s="7">
         <v>168</v>
@@ -4333,13 +4333,13 @@
         <v>180848</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M34" s="7">
         <v>362</v>
@@ -4348,10 +4348,10 @@
         <v>396593</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>248</v>
@@ -4492,7 +4492,7 @@
         <v>271</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>454</v>
@@ -4501,10 +4501,10 @@
         <v>481526</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>274</v>
@@ -4540,10 +4540,10 @@
         <v>278</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M38" s="7">
         <v>691</v>
@@ -4552,13 +4552,13 @@
         <v>746994</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,7 +4614,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4635,7 +4635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64689C32-D0BE-409E-955D-FB2942E8C87C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2A6564-00CA-4ECC-BFDD-A17B954E463B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4652,7 +4652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4759,13 +4759,13 @@
         <v>6212</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4774,10 +4774,10 @@
         <v>5910</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>290</v>
@@ -4792,10 +4792,10 @@
         <v>291</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4810,13 @@
         <v>4908</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4894,10 +4894,10 @@
         <v>306</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4912,13 @@
         <v>16021</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -4927,13 +4927,13 @@
         <v>9993</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>312</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4942,13 +4942,13 @@
         <v>26014</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4963,13 @@
         <v>11671</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4978,13 +4978,13 @@
         <v>4451</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>95</v>
+        <v>320</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -4993,13 +4993,13 @@
         <v>16122</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5067,13 @@
         <v>36551</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5082,13 +5082,13 @@
         <v>32534</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -5097,13 +5097,13 @@
         <v>69085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,10 +5121,10 @@
         <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -5133,13 +5133,13 @@
         <v>23360</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -5148,13 +5148,13 @@
         <v>55597</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5169,13 @@
         <v>49556</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -5184,13 +5184,13 @@
         <v>32294</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M12" s="7">
         <v>82</v>
@@ -5199,10 +5199,10 @@
         <v>81850</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>346</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>347</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5378,10 +5378,10 @@
         <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -5390,13 +5390,13 @@
         <v>53350</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>368</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -5405,13 +5405,13 @@
         <v>121881</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>371</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5426,13 @@
         <v>69254</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -5441,13 +5441,13 @@
         <v>38600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>101</v>
@@ -5456,7 +5456,7 @@
         <v>107854</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>378</v>
@@ -5480,10 +5480,10 @@
         <v>380</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>177</v>
+        <v>381</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H18" s="7">
         <v>75</v>
@@ -5492,13 +5492,13 @@
         <v>75435</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M18" s="7">
         <v>173</v>
@@ -5507,13 +5507,13 @@
         <v>185768</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5528,13 @@
         <v>78463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -5546,10 +5546,10 @@
         <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -5558,13 +5558,13 @@
         <v>136612</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>247</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5579,13 @@
         <v>87460</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -5594,13 +5594,13 @@
         <v>48238</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>399</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -5609,13 +5609,13 @@
         <v>135698</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5683,13 @@
         <v>75595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>404</v>
+        <v>246</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -5698,13 +5698,13 @@
         <v>37584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
         <v>104</v>
@@ -5713,13 +5713,13 @@
         <v>113179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5734,13 @@
         <v>57201</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>414</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H23" s="7">
         <v>45</v>
@@ -5749,13 +5749,13 @@
         <v>45968</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>62</v>
+        <v>416</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>417</v>
       </c>
       <c r="M23" s="7">
         <v>96</v>
@@ -5764,13 +5764,13 @@
         <v>103169</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>415</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5785,13 @@
         <v>116076</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H24" s="7">
         <v>78</v>
@@ -5800,13 +5800,13 @@
         <v>77399</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M24" s="7">
         <v>180</v>
@@ -5815,13 +5815,13 @@
         <v>193475</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5836,13 @@
         <v>58324</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -5851,13 +5851,13 @@
         <v>62241</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -5866,13 +5866,13 @@
         <v>120564</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5887,13 @@
         <v>56625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -5902,13 +5902,13 @@
         <v>47366</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>99</v>
@@ -5917,13 +5917,13 @@
         <v>103991</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,7 +5979,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5991,13 +5991,13 @@
         <v>74813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>444</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H28" s="7">
         <v>78</v>
@@ -6006,13 +6006,13 @@
         <v>84550</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>447</v>
+        <v>127</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M28" s="7">
         <v>150</v>
@@ -6021,13 +6021,13 @@
         <v>159363</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6042,13 @@
         <v>56751</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>408</v>
+        <v>353</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -6057,13 +6057,13 @@
         <v>36813</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>92</v>
@@ -6072,13 +6072,13 @@
         <v>93564</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6093,13 @@
         <v>100698</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H30" s="7">
         <v>76</v>
@@ -6108,13 +6108,13 @@
         <v>77958</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M30" s="7">
         <v>174</v>
@@ -6123,13 +6123,13 @@
         <v>178656</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>228</v>
+        <v>467</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6144,13 @@
         <v>93918</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>85</v>
+        <v>471</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="H31" s="7">
         <v>65</v>
@@ -6159,13 +6159,13 @@
         <v>67835</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>467</v>
+        <v>153</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>468</v>
+        <v>371</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>133</v>
+        <v>473</v>
       </c>
       <c r="M31" s="7">
         <v>158</v>
@@ -6174,13 +6174,13 @@
         <v>161753</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>469</v>
+        <v>274</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>101</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6195,13 @@
         <v>74991</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>473</v>
+        <v>355</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -6210,13 +6210,13 @@
         <v>58318</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>480</v>
       </c>
       <c r="M32" s="7">
         <v>126</v>
@@ -6225,13 +6225,13 @@
         <v>133308</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>340</v>
+        <v>481</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6299,13 @@
         <v>261702</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>291</v>
+        <v>485</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="H34" s="7">
         <v>206</v>
@@ -6314,13 +6314,13 @@
         <v>213928</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="M34" s="7">
         <v>447</v>
@@ -6329,13 +6329,13 @@
         <v>475630</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6350,13 @@
         <v>220350</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="H35" s="7">
         <v>141</v>
@@ -6365,13 +6365,13 @@
         <v>144741</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>488</v>
+        <v>235</v>
       </c>
       <c r="M35" s="7">
         <v>348</v>
@@ -6380,13 +6380,13 @@
         <v>365091</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>490</v>
+        <v>401</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,13 +6401,13 @@
         <v>381873</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>423</v>
+        <v>498</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="H36" s="7">
         <v>273</v>
@@ -6416,13 +6416,13 @@
         <v>272623</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>495</v>
+        <v>83</v>
       </c>
       <c r="M36" s="7">
         <v>624</v>
@@ -6431,13 +6431,13 @@
         <v>654496</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6452,13 @@
         <v>284734</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="H37" s="7">
         <v>216</v>
@@ -6467,13 +6467,13 @@
         <v>220765</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>502</v>
+        <v>125</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="M37" s="7">
         <v>487</v>
@@ -6482,13 +6482,13 @@
         <v>505499</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>505</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>506</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6503,13 @@
         <v>273663</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>41</v>
+        <v>512</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="H38" s="7">
         <v>177</v>
@@ -6518,13 +6518,13 @@
         <v>185115</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="M38" s="7">
         <v>430</v>
@@ -6533,13 +6533,13 @@
         <v>458778</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>395</v>
+        <v>201</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>512</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,7 +6595,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -6616,7 +6616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7117CBCD-6243-4745-AFD0-8AE4F4DAF40B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA04D634-4AB3-443A-8DC7-185B5D76500F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6633,7 +6633,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6740,13 +6740,13 @@
         <v>6933</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6755,13 +6755,13 @@
         <v>3505</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>518</v>
+        <v>414</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6770,13 +6770,13 @@
         <v>10438</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>521</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,7 +6797,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6806,13 +6806,13 @@
         <v>1322</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6821,13 +6821,13 @@
         <v>1322</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>529</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,7 +6842,7 @@
         <v>2046</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>530</v>
+        <v>372</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>24</v>
@@ -6872,7 +6872,7 @@
         <v>2205</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>534</v>
@@ -6908,13 +6908,13 @@
         <v>2642</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>539</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -6923,13 +6923,13 @@
         <v>5041</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,13 +6944,13 @@
         <v>4006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6959,13 +6959,13 @@
         <v>776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -6974,13 +6974,13 @@
         <v>4782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +7048,13 @@
         <v>13430</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>554</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -7063,13 +7063,13 @@
         <v>18365</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>555</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -7078,13 +7078,13 @@
         <v>31796</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>439</v>
+        <v>558</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>557</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7099,13 @@
         <v>7651</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>561</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -7114,13 +7114,13 @@
         <v>4526</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -7129,13 +7129,13 @@
         <v>12177</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>295</v>
+        <v>566</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7150,13 @@
         <v>18868</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>331</v>
+        <v>568</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -7165,13 +7165,13 @@
         <v>15958</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="M12" s="7">
         <v>48</v>
@@ -7180,13 +7180,13 @@
         <v>34826</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7201,13 @@
         <v>15445</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -7216,13 +7216,13 @@
         <v>13236</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>580</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>576</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -7231,13 +7231,13 @@
         <v>28681</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7252,13 @@
         <v>19152</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>584</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -7267,13 +7267,13 @@
         <v>13263</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -7282,13 +7282,13 @@
         <v>32415</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,7 +7344,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7356,13 +7356,13 @@
         <v>80617</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -7371,13 +7371,13 @@
         <v>42853</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -7386,13 +7386,13 @@
         <v>123470</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7407,13 @@
         <v>17119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -7422,13 +7422,13 @@
         <v>14608</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -7437,13 +7437,13 @@
         <v>31727</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>608</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>609</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>603</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7458,13 @@
         <v>52596</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -7473,13 +7473,13 @@
         <v>38518</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="M18" s="7">
         <v>98</v>
@@ -7488,13 +7488,13 @@
         <v>91114</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>616</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7509,13 @@
         <v>26659</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -7524,13 +7524,13 @@
         <v>13167</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>376</v>
+        <v>621</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -7539,10 +7539,10 @@
         <v>39826</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>625</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>365</v>
@@ -7560,13 +7560,13 @@
         <v>35802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -7575,13 +7575,13 @@
         <v>18865</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>620</v>
+        <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>198</v>
+        <v>629</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
@@ -7590,13 +7590,13 @@
         <v>54667</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>557</v>
+        <v>435</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,13 +7664,13 @@
         <v>18230</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -7679,13 +7679,13 @@
         <v>27409</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -7694,13 +7694,13 @@
         <v>45639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>630</v>
+        <v>421</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,13 +7715,13 @@
         <v>16616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -7730,13 +7730,13 @@
         <v>18948</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="M23" s="7">
         <v>36</v>
@@ -7745,13 +7745,13 @@
         <v>35564</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7766,13 @@
         <v>18902</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -7781,13 +7781,13 @@
         <v>19374</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>508</v>
+        <v>651</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -7799,10 +7799,10 @@
         <v>258</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7817,13 @@
         <v>13310</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -7832,10 +7832,10 @@
         <v>7808</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>650</v>
+        <v>301</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>64</v>
@@ -7847,13 +7847,13 @@
         <v>21118</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>651</v>
+        <v>429</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>652</v>
+        <v>253</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>653</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7868,13 @@
         <v>14048</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>199</v>
+        <v>659</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -7883,13 +7883,13 @@
         <v>15956</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -7898,13 +7898,13 @@
         <v>30004</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>426</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,7 +7960,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7972,13 +7972,13 @@
         <v>39761</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="H28" s="7">
         <v>46</v>
@@ -7987,13 +7987,13 @@
         <v>33421</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="M28" s="7">
         <v>83</v>
@@ -8002,13 +8002,13 @@
         <v>73182</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8023,13 @@
         <v>7565</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -8038,13 +8038,13 @@
         <v>13288</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -8053,13 +8053,13 @@
         <v>20854</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>677</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,13 +8074,13 @@
         <v>29094</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -8089,13 +8089,13 @@
         <v>13259</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="M30" s="7">
         <v>46</v>
@@ -8104,13 +8104,13 @@
         <v>42353</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>683</v>
+        <v>430</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>688</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,13 +8125,13 @@
         <v>19112</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>685</v>
+        <v>123</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -8140,13 +8140,13 @@
         <v>20738</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>687</v>
+        <v>176</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -8155,13 +8155,13 @@
         <v>39851</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8176,13 +8176,13 @@
         <v>17552</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>692</v>
+        <v>318</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>479</v>
+        <v>695</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -8191,13 +8191,13 @@
         <v>14123</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>95</v>
+        <v>320</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -8206,13 +8206,13 @@
         <v>31675</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8280,13 +8280,13 @@
         <v>158971</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="H34" s="7">
         <v>158</v>
@@ -8295,13 +8295,13 @@
         <v>125553</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -8310,13 +8310,13 @@
         <v>284524</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,13 +8331,13 @@
         <v>48952</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>299</v>
+        <v>711</v>
       </c>
       <c r="H35" s="7">
         <v>67</v>
@@ -8346,13 +8346,13 @@
         <v>52692</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="M35" s="7">
         <v>107</v>
@@ -8361,13 +8361,13 @@
         <v>101644</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>710</v>
+        <v>15</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8382,13 +8382,13 @@
         <v>121506</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>492</v>
+        <v>716</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H36" s="7">
         <v>122</v>
@@ -8397,13 +8397,13 @@
         <v>87268</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="M36" s="7">
         <v>234</v>
@@ -8412,13 +8412,13 @@
         <v>208773</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8433,13 +8433,13 @@
         <v>76926</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>722</v>
+        <v>110</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="H37" s="7">
         <v>82</v>
@@ -8448,13 +8448,13 @@
         <v>57591</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="M37" s="7">
         <v>157</v>
@@ -8463,13 +8463,13 @@
         <v>134517</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>725</v>
+        <v>307</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8484,13 +8484,13 @@
         <v>90559</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>728</v>
+        <v>352</v>
       </c>
       <c r="H38" s="7">
         <v>80</v>
@@ -8499,13 +8499,13 @@
         <v>62983</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>731</v>
+        <v>217</v>
       </c>
       <c r="M38" s="7">
         <v>158</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6707-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F13AB4E-D764-4ED5-8C98-4DB764DFCB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA6A9246-3DEB-4C96-892C-61FD98E15C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E3ADBDA-42F6-41CE-8E8A-6B872A3A1147}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BDD55CB3-0EF8-4882-9CDE-F0C3ED0B2343}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="737">
   <si>
     <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2012 (Tasa respuesta: 33,64%)</t>
   </si>
@@ -76,2173 +76,2179 @@
     <t>20,68%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
   </si>
   <si>
     <t>24,86%</t>
   </si>
   <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
     <t>11,51%</t>
   </si>
   <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>12,67%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>13,01%</t>
+    <t>20,22%</t>
   </si>
   <si>
     <t>17,39%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>13,66%</t>
   </si>
 </sst>
 </file>
@@ -2654,7 +2660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B757F0-F206-43A2-82A9-EF6D986075D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C070254-31B2-4165-99F0-B11BF398E576}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3143,7 +3149,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -3152,13 +3158,13 @@
         <v>12721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -3167,13 +3173,13 @@
         <v>28275</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3194,13 @@
         <v>39907</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -3203,13 +3209,13 @@
         <v>27989</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -3218,13 +3224,13 @@
         <v>67896</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3245,13 @@
         <v>38879</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -3254,13 +3260,13 @@
         <v>26531</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -3269,13 +3275,13 @@
         <v>65411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3296,13 @@
         <v>85395</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -3305,13 +3311,13 @@
         <v>43657</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>123</v>
@@ -3320,13 +3326,13 @@
         <v>129052</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,7 +3388,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3394,10 +3400,10 @@
         <v>62691</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>108</v>
@@ -3625,7 +3631,7 @@
         <v>224</v>
       </c>
       <c r="N20" s="7">
-        <v>243637</v>
+        <v>243638</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>148</v>
@@ -3676,7 +3682,7 @@
         <v>615</v>
       </c>
       <c r="N21" s="7">
-        <v>672625</v>
+        <v>672626</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -3705,10 +3711,10 @@
         <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -3717,13 +3723,13 @@
         <v>45034</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -3732,13 +3738,13 @@
         <v>96877</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3759,13 @@
         <v>33705</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3768,13 +3774,13 @@
         <v>15898</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>45</v>
@@ -3783,13 +3789,13 @@
         <v>49603</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3810,13 @@
         <v>64303</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -3819,13 +3825,13 @@
         <v>33108</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="M24" s="7">
         <v>89</v>
@@ -3837,10 +3843,10 @@
         <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,10 +3861,10 @@
         <v>66201</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>179</v>
@@ -4031,7 +4037,7 @@
         <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>115</v>
@@ -4040,10 +4046,10 @@
         <v>121574</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>203</v>
@@ -4094,10 +4100,10 @@
         <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4118,13 @@
         <v>110478</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>70</v>
@@ -4127,13 +4133,13 @@
         <v>76072</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>178</v>
@@ -4142,13 +4148,13 @@
         <v>186550</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4169,13 @@
         <v>113096</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>57</v>
@@ -4178,13 +4184,13 @@
         <v>58121</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>171</v>
@@ -4193,13 +4199,13 @@
         <v>171217</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4220,13 @@
         <v>100805</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>59</v>
@@ -4229,13 +4235,13 @@
         <v>61920</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>151</v>
@@ -4244,13 +4250,13 @@
         <v>162726</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4324,13 @@
         <v>215746</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>168</v>
@@ -4333,13 +4339,13 @@
         <v>180848</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M34" s="7">
         <v>362</v>
@@ -4348,13 +4354,13 @@
         <v>396593</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>247</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4375,13 @@
         <v>118763</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>85</v>
@@ -4384,13 +4390,13 @@
         <v>87947</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>195</v>
@@ -4399,13 +4405,13 @@
         <v>206710</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4426,13 @@
         <v>316768</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>183</v>
@@ -4435,13 +4441,13 @@
         <v>198789</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>487</v>
@@ -4450,13 +4456,13 @@
         <v>515557</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4477,13 @@
         <v>297967</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>170</v>
@@ -4486,13 +4492,13 @@
         <v>183559</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>454</v>
@@ -4501,13 +4507,13 @@
         <v>481526</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>274</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4528,13 @@
         <v>462419</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H38" s="7">
         <v>258</v>
@@ -4537,13 +4543,13 @@
         <v>284575</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M38" s="7">
         <v>691</v>
@@ -4552,13 +4558,13 @@
         <v>746994</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,7 +4620,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4635,7 +4641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2A6564-00CA-4ECC-BFDD-A17B954E463B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C517A74B-36E9-47B8-9EC2-51EF2297B593}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4652,7 +4658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4759,13 +4765,13 @@
         <v>6212</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4774,13 +4780,13 @@
         <v>5910</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4789,13 +4795,13 @@
         <v>12122</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4816,13 @@
         <v>4908</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4831,7 +4837,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4840,13 +4846,13 @@
         <v>4908</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4867,13 @@
         <v>5210</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4876,13 +4882,13 @@
         <v>9537</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4891,13 +4897,13 @@
         <v>14747</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4918,13 @@
         <v>16021</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -4927,13 +4933,13 @@
         <v>9993</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4942,13 +4948,13 @@
         <v>26014</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4969,13 @@
         <v>11671</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4978,10 +4984,10 @@
         <v>4451</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>321</v>
@@ -5067,13 +5073,13 @@
         <v>36551</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5082,7 +5088,7 @@
         <v>32534</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>328</v>
@@ -5139,7 +5145,7 @@
         <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -5148,13 +5154,13 @@
         <v>55597</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5175,13 @@
         <v>49556</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -5184,13 +5190,13 @@
         <v>32294</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M12" s="7">
         <v>82</v>
@@ -5199,10 +5205,10 @@
         <v>81850</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>346</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>347</v>
@@ -5235,13 +5241,13 @@
         <v>22548</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>351</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>352</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -5250,13 +5256,13 @@
         <v>60557</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5277,13 @@
         <v>42917</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5286,13 +5292,13 @@
         <v>26742</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -5301,13 +5307,13 @@
         <v>69659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5369,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5375,13 +5381,13 @@
         <v>68531</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -5390,13 +5396,13 @@
         <v>53350</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>14</v>
+        <v>366</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -5405,13 +5411,13 @@
         <v>121881</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5432,13 @@
         <v>69254</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>373</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -5441,13 +5447,13 @@
         <v>38600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>101</v>
@@ -5456,13 +5462,13 @@
         <v>107854</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5483,13 @@
         <v>110333</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H18" s="7">
         <v>75</v>
@@ -5492,13 +5498,13 @@
         <v>75435</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M18" s="7">
         <v>173</v>
@@ -5507,13 +5513,13 @@
         <v>185768</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5534,13 @@
         <v>78463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -5543,13 +5549,13 @@
         <v>58149</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -5558,13 +5564,13 @@
         <v>136612</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5585,13 @@
         <v>87460</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -5594,13 +5600,13 @@
         <v>48238</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -5609,13 +5615,13 @@
         <v>135698</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>402</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5689,13 @@
         <v>75595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -5698,13 +5704,13 @@
         <v>37584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
         <v>104</v>
@@ -5713,13 +5719,13 @@
         <v>113179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5740,13 @@
         <v>57201</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H23" s="7">
         <v>45</v>
@@ -5752,10 +5758,10 @@
         <v>335</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M23" s="7">
         <v>96</v>
@@ -5764,13 +5770,13 @@
         <v>103169</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>225</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5791,13 @@
         <v>116076</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H24" s="7">
         <v>78</v>
@@ -5800,13 +5806,13 @@
         <v>77399</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M24" s="7">
         <v>180</v>
@@ -5815,13 +5821,13 @@
         <v>193475</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5842,13 @@
         <v>58324</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>430</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -5851,13 +5857,13 @@
         <v>62241</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -5866,13 +5872,13 @@
         <v>120564</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5893,13 @@
         <v>56625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>251</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -5902,13 +5908,13 @@
         <v>47366</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>99</v>
@@ -5917,13 +5923,13 @@
         <v>103991</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5997,13 @@
         <v>74813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>46</v>
+        <v>440</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H28" s="7">
         <v>78</v>
@@ -6006,13 +6012,13 @@
         <v>84550</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>127</v>
+        <v>443</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M28" s="7">
         <v>150</v>
@@ -6021,13 +6027,13 @@
         <v>159363</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6048,13 @@
         <v>56751</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>353</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -6057,13 +6063,13 @@
         <v>36813</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M29" s="7">
         <v>92</v>
@@ -6072,13 +6078,13 @@
         <v>93564</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>460</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6099,13 @@
         <v>100698</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="H30" s="7">
         <v>76</v>
@@ -6108,13 +6114,13 @@
         <v>77958</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>465</v>
+        <v>85</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="M30" s="7">
         <v>174</v>
@@ -6123,13 +6129,13 @@
         <v>178656</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6150,13 @@
         <v>93918</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>472</v>
+        <v>157</v>
       </c>
       <c r="H31" s="7">
         <v>65</v>
@@ -6159,13 +6165,13 @@
         <v>67835</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>153</v>
+        <v>464</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>371</v>
+        <v>67</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="M31" s="7">
         <v>158</v>
@@ -6174,13 +6180,13 @@
         <v>161753</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>274</v>
+        <v>466</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6201,13 @@
         <v>74991</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>355</v>
+        <v>470</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -6210,13 +6216,13 @@
         <v>58318</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="M32" s="7">
         <v>126</v>
@@ -6225,13 +6231,13 @@
         <v>133308</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>482</v>
+        <v>156</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6305,13 @@
         <v>261702</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H34" s="7">
         <v>206</v>
@@ -6314,13 +6320,13 @@
         <v>213928</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>488</v>
+        <v>175</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>489</v>
+        <v>382</v>
       </c>
       <c r="M34" s="7">
         <v>447</v>
@@ -6329,13 +6335,13 @@
         <v>475630</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6356,13 @@
         <v>220350</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="H35" s="7">
         <v>141</v>
@@ -6365,13 +6371,13 @@
         <v>144741</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>235</v>
+        <v>488</v>
       </c>
       <c r="M35" s="7">
         <v>348</v>
@@ -6380,13 +6386,13 @@
         <v>365091</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>401</v>
+        <v>89</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,13 +6407,13 @@
         <v>381873</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="H36" s="7">
         <v>273</v>
@@ -6416,13 +6422,13 @@
         <v>272623</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>83</v>
+        <v>495</v>
       </c>
       <c r="M36" s="7">
         <v>624</v>
@@ -6431,13 +6437,13 @@
         <v>654496</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>504</v>
+        <v>314</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6458,13 @@
         <v>284734</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>506</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="H37" s="7">
         <v>216</v>
@@ -6467,13 +6473,13 @@
         <v>220765</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>125</v>
+        <v>501</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="M37" s="7">
         <v>487</v>
@@ -6482,13 +6488,13 @@
         <v>505499</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>268</v>
+        <v>504</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>258</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6509,13 @@
         <v>273663</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H38" s="7">
         <v>177</v>
@@ -6518,13 +6524,13 @@
         <v>185115</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>514</v>
+        <v>427</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>515</v>
+        <v>432</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>516</v>
+        <v>183</v>
       </c>
       <c r="M38" s="7">
         <v>430</v>
@@ -6533,13 +6539,13 @@
         <v>458778</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>201</v>
+        <v>509</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>430</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,7 +6601,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -6616,7 +6622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA04D634-4AB3-443A-8DC7-185B5D76500F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96940DB0-608D-4105-BFF0-F78B43696F9F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6633,7 +6639,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6740,13 +6746,13 @@
         <v>6933</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6755,13 +6761,13 @@
         <v>3505</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>414</v>
+        <v>516</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6770,13 +6776,13 @@
         <v>10438</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>295</v>
+        <v>519</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,7 +6803,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6806,13 +6812,13 @@
         <v>1322</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6821,13 +6827,13 @@
         <v>1322</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,13 +6848,13 @@
         <v>2046</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>372</v>
+        <v>528</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>531</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6857,13 +6863,13 @@
         <v>159</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6872,13 +6878,13 @@
         <v>2205</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6899,13 @@
         <v>2400</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6908,13 +6914,13 @@
         <v>2642</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -6923,13 +6929,13 @@
         <v>5041</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,13 +6950,13 @@
         <v>4006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6959,13 +6965,13 @@
         <v>776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -6974,13 +6980,13 @@
         <v>4782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +7054,13 @@
         <v>13430</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>552</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -7063,13 +7069,13 @@
         <v>18365</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -7078,13 +7084,13 @@
         <v>31796</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>558</v>
+        <v>473</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>420</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7105,13 @@
         <v>7651</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -7114,13 +7120,13 @@
         <v>4526</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -7129,13 +7135,13 @@
         <v>12177</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7156,13 @@
         <v>18868</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -7165,13 +7171,13 @@
         <v>15958</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="M12" s="7">
         <v>48</v>
@@ -7180,13 +7186,13 @@
         <v>34826</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>575</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7207,13 @@
         <v>15445</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>574</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -7216,13 +7222,13 @@
         <v>13236</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>579</v>
+        <v>510</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>577</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -7231,13 +7237,13 @@
         <v>28681</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>582</v>
+        <v>447</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7258,13 @@
         <v>19152</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -7267,13 +7273,13 @@
         <v>13263</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -7282,13 +7288,13 @@
         <v>32415</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,7 +7350,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7356,13 +7362,13 @@
         <v>80617</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>594</v>
+        <v>112</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -7371,13 +7377,13 @@
         <v>42853</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -7386,13 +7392,13 @@
         <v>123470</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>600</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7413,13 @@
         <v>17119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>604</v>
+        <v>565</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -7422,13 +7428,13 @@
         <v>14608</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>607</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -7437,13 +7443,13 @@
         <v>31727</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7464,13 @@
         <v>52596</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -7473,13 +7479,13 @@
         <v>38518</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="M18" s="7">
         <v>98</v>
@@ -7488,13 +7494,13 @@
         <v>91114</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>418</v>
+        <v>609</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>617</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7515,13 @@
         <v>26659</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>618</v>
+        <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -7524,13 +7530,13 @@
         <v>13167</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>623</v>
+        <v>328</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -7539,13 +7545,13 @@
         <v>39826</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>624</v>
+        <v>516</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,13 +7566,13 @@
         <v>35802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -7575,13 +7581,13 @@
         <v>18865</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>619</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
@@ -7590,13 +7596,13 @@
         <v>54667</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>435</v>
+        <v>622</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,13 +7670,13 @@
         <v>18230</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -7679,13 +7685,13 @@
         <v>27409</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -7694,13 +7700,13 @@
         <v>45639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>421</v>
+        <v>631</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,13 +7721,13 @@
         <v>16616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -7730,13 +7736,13 @@
         <v>18948</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>453</v>
+        <v>638</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="M23" s="7">
         <v>36</v>
@@ -7745,13 +7751,13 @@
         <v>35564</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>591</v>
+        <v>641</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7772,13 @@
         <v>18902</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>648</v>
+        <v>420</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -7781,13 +7787,13 @@
         <v>19374</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>582</v>
+        <v>646</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -7796,13 +7802,13 @@
         <v>38276</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7823,13 @@
         <v>13310</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -7832,13 +7838,13 @@
         <v>7808</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>301</v>
+        <v>654</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>64</v>
+        <v>655</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -7847,13 +7853,13 @@
         <v>21118</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>429</v>
+        <v>656</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>253</v>
+        <v>657</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>114</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7889,7 +7895,7 @@
         <v>663</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>664</v>
+        <v>417</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -7898,13 +7904,13 @@
         <v>30004</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>666</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,13 +7978,13 @@
         <v>39761</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>667</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>669</v>
       </c>
       <c r="H28" s="7">
         <v>46</v>
@@ -7987,13 +7993,13 @@
         <v>33421</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>672</v>
       </c>
       <c r="M28" s="7">
         <v>83</v>
@@ -8002,13 +8008,13 @@
         <v>73182</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8029,13 @@
         <v>7565</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>675</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -8038,13 +8044,13 @@
         <v>13288</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -8053,13 +8059,13 @@
         <v>20854</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>82</v>
+        <v>680</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,13 +8080,13 @@
         <v>29094</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>685</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -8089,13 +8095,13 @@
         <v>13259</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>644</v>
       </c>
       <c r="M30" s="7">
         <v>46</v>
@@ -8104,7 +8110,7 @@
         <v>42353</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>430</v>
+        <v>687</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>688</v>
@@ -8125,13 +8131,13 @@
         <v>19112</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>123</v>
+        <v>690</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -8140,13 +8146,13 @@
         <v>20738</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>690</v>
+        <v>629</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>176</v>
+        <v>692</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -8155,13 +8161,13 @@
         <v>39851</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>693</v>
+        <v>159</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8176,13 +8182,13 @@
         <v>17552</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>318</v>
+        <v>696</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>658</v>
+        <v>697</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -8191,13 +8197,13 @@
         <v>14123</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -8209,10 +8215,10 @@
         <v>109</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>699</v>
+        <v>632</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8280,13 +8286,13 @@
         <v>158971</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H34" s="7">
         <v>158</v>
@@ -8295,13 +8301,13 @@
         <v>125553</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>704</v>
+        <v>146</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -8310,13 +8316,13 @@
         <v>284524</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,13 +8337,13 @@
         <v>48952</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>711</v>
+        <v>684</v>
       </c>
       <c r="H35" s="7">
         <v>67</v>
@@ -8346,13 +8352,13 @@
         <v>52692</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>323</v>
+        <v>712</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M35" s="7">
         <v>107</v>
@@ -8361,13 +8367,13 @@
         <v>101644</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>15</v>
+        <v>715</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8382,13 +8388,13 @@
         <v>121506</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>716</v>
+        <v>185</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H36" s="7">
         <v>122</v>
@@ -8397,13 +8403,13 @@
         <v>87268</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>720</v>
+        <v>375</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>721</v>
+        <v>129</v>
       </c>
       <c r="M36" s="7">
         <v>234</v>
@@ -8412,13 +8418,13 @@
         <v>208773</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8433,13 +8439,13 @@
         <v>76926</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="H37" s="7">
         <v>82</v>
@@ -8454,7 +8460,7 @@
         <v>727</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>200</v>
+        <v>728</v>
       </c>
       <c r="M37" s="7">
         <v>157</v>
@@ -8466,10 +8472,10 @@
         <v>109</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>307</v>
+        <v>729</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8484,13 +8490,13 @@
         <v>90559</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>352</v>
+        <v>732</v>
       </c>
       <c r="H38" s="7">
         <v>80</v>
@@ -8499,13 +8505,13 @@
         <v>62983</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>731</v>
+        <v>452</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>217</v>
+        <v>734</v>
       </c>
       <c r="M38" s="7">
         <v>158</v>
@@ -8514,13 +8520,13 @@
         <v>153542</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>734</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8576,7 +8582,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
